--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-793770.8737420175</v>
+        <v>-795658.4552584194</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>194.5492126817478</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>165.0466556732912</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.29290203716405</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>245.95552223328</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>319.151276760617</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>51.48325947269924</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>206.6184701423858</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>33.77936158462983</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>93.45907817175731</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>81.80445351869577</v>
       </c>
       <c r="W10" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>144.8197666582905</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.0111504644068</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722636</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>159.280857878094</v>
+        <v>161.5494425744206</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>49.38162151975459</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>138.3775845601131</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>184.7564146770192</v>
+        <v>188.459064840395</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>49.21182350370179</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>14.65400481831892</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710097</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>162.7113722816256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>21.85553884047546</v>
       </c>
       <c r="E31" t="n">
-        <v>76.90718818968547</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523559</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898727</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857179</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169286</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789328832</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373702</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789509</v>
+        <v>80.78193823789556</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415222</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941874</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224542</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1470.569074795015</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C2" t="n">
-        <v>1470.569074795015</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="D2" t="n">
-        <v>1112.303376188265</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1112.303376188265</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>701.3174713986571</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>293.0479818810668</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.712458167646</v>
+        <v>1293.161685715201</v>
       </c>
       <c r="D5" t="n">
-        <v>1249.712458167646</v>
+        <v>934.895987108451</v>
       </c>
       <c r="E5" t="n">
-        <v>863.9242055694017</v>
+        <v>934.895987108451</v>
       </c>
       <c r="F5" t="n">
-        <v>856.9787048201982</v>
+        <v>523.9100823188435</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>105.9462742170303</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>105.9462742170303</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>490.0065396637069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,43 +5024,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>391.6040140015125</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079765</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688056</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799349</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471177</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119726</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119726</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909232</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909232</v>
+        <v>1128.848262763276</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033452</v>
+        <v>874.1637745573895</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663846</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="X13" t="n">
-        <v>468.4276790558727</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.112461128548</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C16" t="n">
-        <v>656.1762782006411</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883054</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>825.112461128548</v>
+        <v>1135.815005347778</v>
       </c>
       <c r="W16" t="n">
-        <v>825.112461128548</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="X16" t="n">
-        <v>825.112461128548</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="Y16" t="n">
-        <v>825.112461128548</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>326.2492756170072</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.6385818722724</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="C19" t="n">
-        <v>705.7023989443657</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="D19" t="n">
-        <v>555.5857595320299</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E19" t="n">
-        <v>555.5857595320299</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909233</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909233</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909233</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>874.6385818722724</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="X19" t="n">
-        <v>874.6385818722724</v>
+        <v>441.9005583181192</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.6385818722724</v>
+        <v>441.9005583181192</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>505.7582697485844</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="C22" t="n">
-        <v>505.7582697485844</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1312.293629470004</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U22" t="n">
-        <v>1023.164990683562</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V22" t="n">
-        <v>1023.164990683562</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W22" t="n">
-        <v>733.7478206466018</v>
+        <v>475.323281770639</v>
       </c>
       <c r="X22" t="n">
-        <v>505.7582697485844</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="Y22" t="n">
-        <v>505.7582697485844</v>
+        <v>247.3337308726217</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>881.7531914306754</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>712.8170085027685</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904327</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904327</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925222</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471193</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1449.207357927901</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1449.207357927901</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U25" t="n">
-        <v>1160.078719141459</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V25" t="n">
-        <v>905.3942309355724</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W25" t="n">
-        <v>615.9770608986119</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="X25" t="n">
-        <v>615.9770608986119</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>1063.401656260915</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6248,28 +6248,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6291,25 +6291,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.144179024351</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110247</v>
+        <v>565.4200295030895</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644888</v>
+        <v>565.4200295030895</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335241</v>
+        <v>543.3437276440234</v>
       </c>
       <c r="E31" t="n">
-        <v>209.6315478590943</v>
+        <v>451.1914993430012</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590943</v>
+        <v>360.0624171264617</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,49 +6622,49 @@
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818805</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894289</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>957.994667138699</v>
+        <v>902.6804289818951</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220527</v>
+        <v>730.4517433652487</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598935</v>
+        <v>565.4200295030895</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,10 +6953,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108313</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229654</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506706</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083185</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649689</v>
@@ -7111,7 +7111,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045193</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010305</v>
+        <v>772.28861290103</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,34 +7163,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525393</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.686330625495</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649685</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7400,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,52 +7804,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>38.86002301949898</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>141.4175857402868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.69850492463038</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>92.85678544573403</v>
+        <v>90.58820074940743</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>99.23385149845777</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>7.043463462818153</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>36.79114638137003</v>
+        <v>33.08849621799428</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>148.7089864799015</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>211.0556505707183</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>62.99828310741159</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.5566775491797</v>
       </c>
       <c r="E31" t="n">
-        <v>14.32351782832642</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437396</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897884</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571472</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523552</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.371587015659316e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194637</v>
@@ -26323,10 +26323,10 @@
         <v>175963.076881969</v>
       </c>
       <c r="F2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="G2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="H2" t="n">
         <v>175963.076881969</v>
@@ -26338,16 +26338,16 @@
         <v>175963.076881969</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053713</v>
+        <v>183069.9618053714</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.398219464</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.398219464</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194641</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.998865167886834e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086669</v>
+        <v>10342.90680086675</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284581</v>
+        <v>44162.60530284584</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007494</v>
+        <v>7916.731656007383</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020409</v>
+        <v>26081.35417020406</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732789</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732794</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26479,25 +26479,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26506,10 +26506,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-636009.607774411</v>
+        <v>-636009.6077744111</v>
       </c>
       <c r="C6" t="n">
+        <v>-46041.72855986666</v>
+      </c>
+      <c r="D6" t="n">
         <v>-46041.72855986661</v>
       </c>
-      <c r="D6" t="n">
-        <v>-46041.72855986663</v>
-      </c>
       <c r="E6" t="n">
-        <v>-449101.0171996513</v>
+        <v>-449198.4763256234</v>
       </c>
       <c r="F6" t="n">
-        <v>76059.01927724491</v>
+        <v>75961.56015127247</v>
       </c>
       <c r="G6" t="n">
-        <v>76059.01927724485</v>
+        <v>75961.56015127282</v>
       </c>
       <c r="H6" t="n">
-        <v>76059.01927724488</v>
+        <v>75961.56015127276</v>
       </c>
       <c r="I6" t="n">
-        <v>76059.01927724472</v>
+        <v>75961.56015127276</v>
       </c>
       <c r="J6" t="n">
-        <v>-100364.1999153481</v>
+        <v>-100461.6590413201</v>
       </c>
       <c r="K6" t="n">
-        <v>16197.79380209879</v>
+        <v>16179.30006416452</v>
       </c>
       <c r="L6" t="n">
-        <v>46340.86670124374</v>
+        <v>46340.86670124393</v>
       </c>
       <c r="M6" t="n">
-        <v>-78117.24173172646</v>
+        <v>-78117.24173172642</v>
       </c>
       <c r="N6" t="n">
-        <v>56683.77350211071</v>
+        <v>56683.77350211027</v>
       </c>
       <c r="O6" t="n">
-        <v>56683.77350211071</v>
+        <v>56683.77350211072</v>
       </c>
       <c r="P6" t="n">
-        <v>12521.16819926485</v>
+        <v>12521.16819926487</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26747,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26799,19 +26799,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855728</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108336</v>
+        <v>12.92863350108344</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>160.1338289389352</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>248.7375143475037</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.53907814477324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>6.18212109054798</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>94.63289326017798</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100.448056772162</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>18.4166353156985</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>184.805291767465</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>255.7818905456557</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>170.3331898051322</v>
       </c>
       <c r="W10" t="n">
-        <v>131.0703856053969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964057</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>255.4503488645142</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35568,7 +35568,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.702428529909</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>189.4354616074382</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36604,19 +36604,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36683,19 +36683,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.71102679412273</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341608</v>
@@ -37008,7 +37008,7 @@
         <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043196</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952061</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352442</v>
@@ -37479,10 +37479,10 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
